--- a/asset/data/data.xlsx
+++ b/asset/data/data.xlsx
@@ -212,10 +212,10 @@
     <t>me</t>
   </si>
   <si>
-    <t>Bạn biết tôi là ai không?
-Đố bạn biết tôi là ai?
+    <t>tôi là ai?
+Đố biết tôi là ai?
 Tôi tên là gì?
-Đố bạn biết được tên của tôi?</t>
+Đố biết được tên của tôi?</t>
   </si>
   <si>
     <t>Self</t>
@@ -1800,9 +1800,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -1843,9 +1843,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1867,14 +1874,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1888,11 +1904,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1919,10 +1934,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1931,28 +1947,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1970,9 +1964,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1987,6 +1980,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -2147,7 +2147,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2159,7 +2171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2171,19 +2189,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2195,7 +2219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2207,7 +2237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2219,13 +2255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2237,13 +2273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,43 +2291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2303,7 +2303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2315,7 +2315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,6 +2344,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2355,15 +2379,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2392,26 +2407,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2433,159 +2435,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="49" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3016,9 +3016,9 @@
   <dimension ref="A1:Z1043"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7090909090909" defaultRowHeight="15.75" customHeight="1"/>

--- a/asset/data/data.xlsx
+++ b/asset/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="448">
   <si>
     <t>Chủ đề</t>
   </si>
@@ -65,6 +65,66 @@
 Mong sớm gặp lại bạn.</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>Cảm ơn Candy nhiều nha
+Thật tốt vì bạn giúp tôi
+Thanks nha</t>
+  </si>
+  <si>
+    <t>Giúp được bạn tôi vui lắm
+Không có gì đâu nè</t>
+  </si>
+  <si>
+    <t>cảm
+ơn</t>
+  </si>
+  <si>
+    <t>compliment</t>
+  </si>
+  <si>
+    <t>Tuyệt vời quá
+Candy giỏi quá
+Hết sẩy
+Quá đỉnh</t>
+  </si>
+  <si>
+    <t>Hihi, khen làm tôi ngại đó</t>
+  </si>
+  <si>
+    <t>quá
+giỏi</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>Tôi buồn quá đi
+Hôm nay không vui lắm candy ơi
+Tôi thấy buồn</t>
+  </si>
+  <si>
+    <t>Cảm ơn bạn đã chia sẻ với Candy, thành thật với cảm xúc của mình là bước tiến lớn.</t>
+  </si>
+  <si>
+    <t>buồn</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>Kể tôi nghe 1 câu chuyện được không
+Bạn có chuyện gì kể tôi không
+tôi chán quá đi</t>
+  </si>
+  <si>
+    <t>kể
+truyện
+chuyện
+cười</t>
+  </si>
+  <si>
     <t>open app</t>
   </si>
   <si>
@@ -74,6 +134,11 @@
 Mở phần mềm</t>
   </si>
   <si>
+    <t>app
+ứng
+dụng</t>
+  </si>
+  <si>
     <t>chrome</t>
   </si>
   <si>
@@ -116,6 +181,7 @@
   <si>
     <t>Hãy mở máy tính
 Giúp tôi mở máy tính
+Sử dụng máy tính
 Tôi muốn mở calculator</t>
   </si>
   <si>
@@ -308,7 +374,8 @@
   <si>
     <t>Làm trợ lý ảo có mệt không?
 Làm người hay làm trợ lý ảo mệt hơn nhỉ?
-Có bao giờ bạn cảm thấy mệt mỏi không?</t>
+Có bao giờ bạn cảm thấy mệt mỏi không?
+Làm trợ lý ảo có sướng không</t>
   </si>
   <si>
     <t>Trò chuyện cùng bạn thì tôi không bao giờ mệt cả.</t>
@@ -420,6 +487,10 @@
     <t>Chà, Việt Nam có rất nhiều địa điểm du lịch như Phú Quốc, Bà Nà Hill, Động Phong Nha, Vịnh Hạ Long. Bạn hãy ghé thăm nhé.</t>
   </si>
   <si>
+    <t>du
+lịch</t>
+  </si>
+  <si>
     <t>travel time</t>
   </si>
   <si>
@@ -744,6 +815,9 @@
     <t>Theo nhiều trang bình chọn thì Đắc Nhân Tâm - Dale Carnegie được cho là 1 trong top 10 quyển sách hay nhất mọi thời đại.</t>
   </si>
   <si>
+    <t>sách</t>
+  </si>
+  <si>
     <t>good book</t>
   </si>
   <si>
@@ -1500,6 +1574,9 @@
     <t>Xin lỗi tôi vẫn chưa biết hát, nhưng tôi có thể giúp bạn mở nhạc.</t>
   </si>
   <si>
+    <t>hát</t>
+  </si>
+  <si>
     <t>Công việc</t>
   </si>
   <si>
@@ -1801,8 +1878,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -1844,15 +1921,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1865,8 +1934,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1880,17 +1950,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,17 +1972,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1934,6 +2004,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1942,11 +2019,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1957,15 +2033,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1979,16 +2057,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2147,19 +2224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2171,7 +2254,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2183,31 +2278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2225,7 +2296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2237,19 +2314,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,7 +2344,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2273,49 +2386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,30 +2421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2379,6 +2432,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2401,19 +2463,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2435,157 +2510,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="49" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3013,12 +3090,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1043"/>
+  <dimension ref="A1:Z1047"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7090909090909" defaultRowHeight="15.75" customHeight="1"/>
@@ -3142,7 +3219,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="72" spans="1:26">
+    <row r="4" s="1" customFormat="1" ht="54" spans="1:26">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
@@ -3150,8 +3227,12 @@
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -3177,14 +3258,16 @@
     <row r="5" s="1" customFormat="1" ht="72" spans="1:26">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -3211,14 +3294,16 @@
     <row r="6" s="1" customFormat="1" ht="54" spans="1:26">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -3242,17 +3327,17 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="54" spans="1:26">
+    <row r="7" s="1" customFormat="1" ht="72" spans="1:26">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -3276,17 +3361,17 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="54" spans="1:26">
+    <row r="8" s="1" customFormat="1" ht="72" spans="1:26">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -3310,16 +3395,18 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="54" spans="1:26">
+    <row r="9" s="1" customFormat="1" ht="72" spans="1:26">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -3345,14 +3432,14 @@
     <row r="10" s="1" customFormat="1" ht="54" spans="1:26">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -3379,14 +3466,14 @@
     <row r="11" s="1" customFormat="1" ht="54" spans="1:26">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -3413,13 +3500,15 @@
     <row r="12" s="1" customFormat="1" ht="54" spans="1:26">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -3445,10 +3534,10 @@
     <row r="13" s="1" customFormat="1" ht="72" spans="1:26">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="9"/>
@@ -3477,13 +3566,15 @@
     <row r="14" s="1" customFormat="1" ht="54" spans="1:26">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -3509,14 +3600,14 @@
     <row r="15" s="1" customFormat="1" ht="54" spans="1:26">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="8" t="s">
-        <v>38</v>
+      <c r="E15" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -3540,15 +3631,16 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="36" spans="1:26">
+    <row r="16" s="1" customFormat="1" ht="54" spans="1:26">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -3571,18 +3663,16 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="54" spans="1:26">
+    <row r="17" s="1" customFormat="1" ht="72" spans="1:26">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3605,18 +3695,16 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="36" spans="1:26">
+    <row r="18" s="1" customFormat="1" ht="54" spans="1:26">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -3639,16 +3727,18 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18" spans="1:26">
+    <row r="19" s="1" customFormat="1" ht="54" spans="1:26">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -3671,16 +3761,15 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="72" spans="1:26">
+    <row r="20" s="1" customFormat="1" ht="36" spans="1:26">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -3703,159 +3792,155 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
     </row>
-    <row r="21" ht="90" spans="1:26">
-      <c r="A21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-    </row>
-    <row r="22" ht="90" spans="1:26">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="12" t="s">
+    <row r="21" s="1" customFormat="1" ht="54" spans="1:26">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-    </row>
-    <row r="23" ht="72" spans="1:26">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
+      <c r="C21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="36" spans="1:26">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-    </row>
-    <row r="24" ht="72" spans="1:26">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="C22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="18" spans="1:26">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="C23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="72" spans="1:26">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
     </row>
     <row r="25" ht="90" spans="1:26">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
-        <v>64</v>
+      <c r="A25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -3875,16 +3960,16 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" ht="162" spans="1:26">
-      <c r="A26" s="15"/>
+    <row r="26" ht="90" spans="1:26">
+      <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3909,21 +3994,21 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" ht="67.5" customHeight="1" spans="1:26">
+    <row r="27" ht="72" spans="1:26">
       <c r="A27" s="15"/>
-      <c r="B27" s="11" t="s">
-        <v>70</v>
+      <c r="B27" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="19"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -3945,19 +4030,19 @@
     </row>
     <row r="28" ht="72" spans="1:26">
       <c r="A28" s="15"/>
-      <c r="B28" s="11" t="s">
-        <v>73</v>
+      <c r="B28" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="19"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -3979,19 +4064,19 @@
     </row>
     <row r="29" ht="90" spans="1:26">
       <c r="A29" s="15"/>
-      <c r="B29" s="11" t="s">
-        <v>76</v>
+      <c r="B29" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -4011,21 +4096,21 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" ht="126" spans="1:26">
+    <row r="30" ht="162" spans="1:26">
       <c r="A30" s="15"/>
       <c r="B30" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -4045,23 +4130,21 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" ht="132.75" customHeight="1" spans="1:26">
-      <c r="A31" s="20" t="s">
-        <v>82</v>
-      </c>
+    <row r="31" ht="67.5" customHeight="1" spans="1:26">
+      <c r="A31" s="15"/>
       <c r="B31" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -4081,21 +4164,21 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" ht="99.75" customHeight="1" spans="1:26">
-      <c r="A32" s="20"/>
+    <row r="32" ht="72" spans="1:26">
+      <c r="A32" s="15"/>
       <c r="B32" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -4115,16 +4198,16 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" ht="72" spans="1:26">
-      <c r="A33" s="20"/>
+    <row r="33" ht="90" spans="1:26">
+      <c r="A33" s="15"/>
       <c r="B33" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -4149,16 +4232,16 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" ht="72" spans="1:26">
-      <c r="A34" s="20"/>
+    <row r="34" ht="126" spans="1:26">
+      <c r="A34" s="15"/>
       <c r="B34" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -4183,156 +4266,158 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" ht="90" spans="1:26">
-      <c r="A35" s="20"/>
+    <row r="35" ht="132.75" customHeight="1" spans="1:26">
+      <c r="A35" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="B35" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-    </row>
-    <row r="36" ht="90" spans="1:26">
+        <v>101</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+    </row>
+    <row r="36" ht="99.75" customHeight="1" spans="1:26">
       <c r="A36" s="20"/>
       <c r="B36" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-    </row>
-    <row r="37" ht="90" spans="1:26">
+        <v>103</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+    </row>
+    <row r="37" ht="72" spans="1:26">
       <c r="A37" s="20"/>
       <c r="B37" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-    </row>
-    <row r="38" ht="54" spans="1:26">
-      <c r="A38" s="25" t="s">
-        <v>104</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+    </row>
+    <row r="38" ht="72" spans="1:26">
+      <c r="A38" s="20"/>
       <c r="B38" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-    </row>
-    <row r="39" ht="120" customHeight="1" spans="1:26">
-      <c r="A39" s="25"/>
+        <v>108</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+    </row>
+    <row r="39" ht="90" spans="1:26">
+      <c r="A39" s="20"/>
       <c r="B39" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="24"/>
+        <v>113</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
@@ -4356,17 +4441,19 @@
       <c r="Z39" s="24"/>
     </row>
     <row r="40" ht="90" spans="1:26">
-      <c r="A40" s="25"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="24"/>
+        <v>117</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
@@ -4389,18 +4476,20 @@
       <c r="Y40" s="24"/>
       <c r="Z40" s="24"/>
     </row>
-    <row r="41" ht="54" spans="1:26">
-      <c r="A41" s="25"/>
+    <row r="41" ht="90" spans="1:26">
+      <c r="A41" s="20"/>
       <c r="B41" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
@@ -4423,16 +4512,18 @@
       <c r="Y41" s="24"/>
       <c r="Z41" s="24"/>
     </row>
-    <row r="42" ht="90" spans="1:26">
-      <c r="A42" s="25"/>
+    <row r="42" ht="54" spans="1:26">
+      <c r="A42" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="B42" s="11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -4457,16 +4548,16 @@
       <c r="Y42" s="24"/>
       <c r="Z42" s="24"/>
     </row>
-    <row r="43" ht="90" spans="1:26">
+    <row r="43" ht="120" customHeight="1" spans="1:26">
       <c r="A43" s="25"/>
       <c r="B43" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -4494,13 +4585,13 @@
     <row r="44" ht="90" spans="1:26">
       <c r="A44" s="25"/>
       <c r="B44" s="11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -4525,52 +4616,50 @@
       <c r="Y44" s="24"/>
       <c r="Z44" s="24"/>
     </row>
-    <row r="45" ht="90" spans="1:26">
-      <c r="A45" s="26" t="s">
-        <v>126</v>
-      </c>
+    <row r="45" ht="54" spans="1:26">
+      <c r="A45" s="25"/>
       <c r="B45" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
     </row>
     <row r="46" ht="90" spans="1:26">
-      <c r="A46" s="26"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -4596,15 +4685,15 @@
       <c r="Z46" s="24"/>
     </row>
     <row r="47" ht="90" spans="1:26">
-      <c r="A47" s="26"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -4629,16 +4718,16 @@
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
     </row>
-    <row r="48" ht="72" spans="1:26">
-      <c r="A48" s="26"/>
+    <row r="48" ht="90" spans="1:26">
+      <c r="A48" s="25"/>
       <c r="B48" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -4664,323 +4753,343 @@
       <c r="Z48" s="24"/>
     </row>
     <row r="49" ht="90" spans="1:26">
-      <c r="A49" s="26"/>
+      <c r="A49" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="B49" s="11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-    </row>
-    <row r="50" ht="108" spans="1:26">
+        <v>145</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+    </row>
+    <row r="50" ht="90" spans="1:26">
       <c r="A50" s="26"/>
       <c r="B50" s="11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
     </row>
     <row r="51" ht="90" spans="1:26">
       <c r="A51" s="26"/>
       <c r="B51" s="11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-    </row>
-    <row r="52" ht="54" spans="1:26">
+        <v>151</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+    </row>
+    <row r="52" ht="72" spans="1:26">
       <c r="A52" s="26"/>
       <c r="B52" s="11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-    </row>
-    <row r="53" ht="54" spans="1:26">
+        <v>154</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="24"/>
+    </row>
+    <row r="53" ht="90" spans="1:26">
       <c r="A53" s="26"/>
       <c r="B53" s="11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-    </row>
-    <row r="54" ht="90" spans="1:26">
-      <c r="A54" s="27" t="s">
-        <v>154</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+    </row>
+    <row r="54" ht="108" spans="1:26">
+      <c r="A54" s="26"/>
       <c r="B54" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
+        <v>160</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
     </row>
     <row r="55" ht="90" spans="1:26">
-      <c r="A55" s="27"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="24"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="24"/>
-    </row>
-    <row r="56" ht="108" spans="1:26">
-      <c r="A56" s="27"/>
+        <v>163</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+    </row>
+    <row r="56" ht="54" spans="1:26">
+      <c r="A56" s="26"/>
       <c r="B56" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
-    </row>
-    <row r="57" ht="117" customHeight="1" spans="1:26">
-      <c r="A57" s="27"/>
+        <v>166</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+    </row>
+    <row r="57" ht="54" spans="1:26">
+      <c r="A57" s="26"/>
       <c r="B57" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="24"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="24"/>
+        <v>169</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
     </row>
     <row r="58" ht="90" spans="1:26">
-      <c r="A58" s="27"/>
+      <c r="A58" s="27" t="s">
+        <v>171</v>
+      </c>
       <c r="B58" s="11" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
@@ -5005,52 +5114,50 @@
       <c r="Y58" s="24"/>
       <c r="Z58" s="24"/>
     </row>
-    <row r="59" ht="126" spans="1:26">
-      <c r="A59" s="28" t="s">
-        <v>170</v>
-      </c>
+    <row r="59" ht="90" spans="1:26">
+      <c r="A59" s="27"/>
       <c r="B59" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row r="60" ht="90" spans="1:26">
-      <c r="A60" s="28"/>
+        <v>176</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
+    </row>
+    <row r="60" ht="108" spans="1:26">
+      <c r="A60" s="27"/>
       <c r="B60" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -5075,16 +5182,16 @@
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61" ht="90" spans="1:26">
-      <c r="A61" s="28"/>
+    <row r="61" ht="117" customHeight="1" spans="1:26">
+      <c r="A61" s="27"/>
       <c r="B61" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
@@ -5110,15 +5217,15 @@
       <c r="Z61" s="24"/>
     </row>
     <row r="62" ht="90" spans="1:26">
-      <c r="A62" s="28"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -5143,52 +5250,58 @@
       <c r="Y62" s="24"/>
       <c r="Z62" s="24"/>
     </row>
-    <row r="63" ht="90" spans="1:26">
-      <c r="A63" s="28"/>
+    <row r="63" ht="126" spans="1:26">
+      <c r="A63" s="28" t="s">
+        <v>187</v>
+      </c>
       <c r="B63" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-    </row>
-    <row r="64" ht="108" spans="1:26">
+        <v>189</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+    </row>
+    <row r="64" ht="90" spans="1:26">
       <c r="A64" s="28"/>
       <c r="B64" s="11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="24"/>
+        <v>194</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>191</v>
+      </c>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
@@ -5211,18 +5324,20 @@
       <c r="Y64" s="24"/>
       <c r="Z64" s="24"/>
     </row>
-    <row r="65" ht="72" spans="1:26">
+    <row r="65" ht="90" spans="1:26">
       <c r="A65" s="28"/>
       <c r="B65" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
       <c r="H65" s="24"/>
@@ -5245,18 +5360,20 @@
       <c r="Y65" s="24"/>
       <c r="Z65" s="24"/>
     </row>
-    <row r="66" ht="72" spans="1:26">
+    <row r="66" ht="90" spans="1:26">
       <c r="A66" s="28"/>
       <c r="B66" s="11" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" s="24"/>
+        <v>199</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>191</v>
+      </c>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
       <c r="H66" s="24"/>
@@ -5279,18 +5396,20 @@
       <c r="Y66" s="24"/>
       <c r="Z66" s="24"/>
     </row>
-    <row r="67" ht="72" spans="1:26">
+    <row r="67" ht="90" spans="1:26">
       <c r="A67" s="28"/>
       <c r="B67" s="11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E67" s="24"/>
+        <v>203</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>191</v>
+      </c>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
@@ -5313,152 +5432,154 @@
       <c r="Y67" s="24"/>
       <c r="Z67" s="24"/>
     </row>
-    <row r="68" ht="90" spans="1:26">
+    <row r="68" ht="108" spans="1:26">
       <c r="A68" s="28"/>
       <c r="B68" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-    </row>
-    <row r="69" ht="54" spans="1:26">
+        <v>206</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+    </row>
+    <row r="69" ht="72" spans="1:26">
       <c r="A69" s="28"/>
       <c r="B69" s="11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-    </row>
-    <row r="70" ht="54" spans="1:26">
+        <v>208</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+    </row>
+    <row r="70" ht="72" spans="1:26">
       <c r="A70" s="28"/>
       <c r="B70" s="11" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
+        <v>211</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
     </row>
     <row r="71" ht="72" spans="1:26">
       <c r="A71" s="28"/>
       <c r="B71" s="11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-    </row>
-    <row r="72" ht="36" spans="1:26">
+        <v>215</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
+    </row>
+    <row r="72" ht="90" spans="1:26">
       <c r="A72" s="28"/>
       <c r="B72" s="11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -5483,16 +5604,16 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" ht="72" spans="1:26">
+    <row r="73" ht="54" spans="1:26">
       <c r="A73" s="28"/>
       <c r="B73" s="11" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -5517,16 +5638,16 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" ht="72" spans="1:26">
+    <row r="74" ht="54" spans="1:26">
       <c r="A74" s="28"/>
       <c r="B74" s="11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -5551,154 +5672,154 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" ht="90" spans="1:26">
-      <c r="A75" s="29" t="s">
-        <v>219</v>
-      </c>
+    <row r="75" ht="72" spans="1:26">
+      <c r="A75" s="28"/>
       <c r="B75" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="24"/>
-      <c r="T75" s="24"/>
-      <c r="U75" s="24"/>
-      <c r="V75" s="24"/>
-      <c r="W75" s="24"/>
-      <c r="X75" s="24"/>
-      <c r="Y75" s="24"/>
-      <c r="Z75" s="24"/>
-    </row>
-    <row r="76" ht="90" spans="1:26">
-      <c r="A76" s="29"/>
+        <v>227</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+    </row>
+    <row r="76" ht="36" spans="1:26">
+      <c r="A76" s="28"/>
       <c r="B76" s="11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
-      <c r="T76" s="24"/>
-      <c r="U76" s="24"/>
-      <c r="V76" s="24"/>
-      <c r="W76" s="24"/>
-      <c r="X76" s="24"/>
-      <c r="Y76" s="24"/>
-      <c r="Z76" s="24"/>
-    </row>
-    <row r="77" ht="90" spans="1:26">
-      <c r="A77" s="30"/>
+        <v>230</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+    </row>
+    <row r="77" ht="72" spans="1:26">
+      <c r="A77" s="28"/>
       <c r="B77" s="11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24"/>
-      <c r="S77" s="24"/>
-      <c r="T77" s="24"/>
-      <c r="U77" s="24"/>
-      <c r="V77" s="24"/>
-      <c r="W77" s="24"/>
-      <c r="X77" s="24"/>
-      <c r="Y77" s="24"/>
-      <c r="Z77" s="24"/>
-    </row>
-    <row r="78" ht="90" spans="1:26">
-      <c r="A78" s="30"/>
+        <v>233</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+    </row>
+    <row r="78" ht="72" spans="1:26">
+      <c r="A78" s="28"/>
       <c r="B78" s="11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="24"/>
-      <c r="X78" s="24"/>
-      <c r="Y78" s="24"/>
-      <c r="Z78" s="24"/>
+        <v>236</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
     </row>
     <row r="79" ht="90" spans="1:26">
-      <c r="A79" s="30"/>
+      <c r="A79" s="29" t="s">
+        <v>237</v>
+      </c>
       <c r="B79" s="11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
@@ -5724,153 +5845,153 @@
       <c r="Z79" s="24"/>
     </row>
     <row r="80" ht="90" spans="1:26">
-      <c r="A80" s="31" t="s">
-        <v>235</v>
-      </c>
+      <c r="A80" s="29"/>
       <c r="B80" s="11" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-    </row>
-    <row r="81" ht="72" spans="1:26">
-      <c r="A81" s="31"/>
+        <v>242</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="24"/>
+      <c r="U80" s="24"/>
+      <c r="V80" s="24"/>
+      <c r="W80" s="24"/>
+      <c r="X80" s="24"/>
+      <c r="Y80" s="24"/>
+      <c r="Z80" s="24"/>
+    </row>
+    <row r="81" ht="90" spans="1:26">
+      <c r="A81" s="30"/>
       <c r="B81" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-    </row>
-    <row r="82" ht="72" spans="1:26">
-      <c r="A82" s="31"/>
+        <v>245</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
+      <c r="V81" s="24"/>
+      <c r="W81" s="24"/>
+      <c r="X81" s="24"/>
+      <c r="Y81" s="24"/>
+      <c r="Z81" s="24"/>
+    </row>
+    <row r="82" ht="90" spans="1:26">
+      <c r="A82" s="30"/>
       <c r="B82" s="11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-    </row>
-    <row r="83" ht="72" spans="1:26">
-      <c r="A83" s="31"/>
+        <v>248</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="24"/>
+      <c r="X82" s="24"/>
+      <c r="Y82" s="24"/>
+      <c r="Z82" s="24"/>
+    </row>
+    <row r="83" ht="90" spans="1:26">
+      <c r="A83" s="30"/>
       <c r="B83" s="11" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-    </row>
-    <row r="84" ht="72" spans="1:26">
-      <c r="A84" s="31"/>
+        <v>251</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="24"/>
+      <c r="U83" s="24"/>
+      <c r="V83" s="24"/>
+      <c r="W83" s="24"/>
+      <c r="X83" s="24"/>
+      <c r="Y83" s="24"/>
+      <c r="Z83" s="24"/>
+    </row>
+    <row r="84" ht="90" spans="1:26">
+      <c r="A84" s="31" t="s">
+        <v>253</v>
+      </c>
       <c r="B84" s="11" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -5895,16 +6016,16 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" ht="90" spans="1:26">
+    <row r="85" ht="72" spans="1:26">
       <c r="A85" s="31"/>
       <c r="B85" s="11" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -5929,16 +6050,16 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" ht="108" spans="1:26">
+    <row r="86" ht="72" spans="1:26">
       <c r="A86" s="31"/>
       <c r="B86" s="11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -5963,16 +6084,16 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" ht="90" spans="1:26">
+    <row r="87" ht="72" spans="1:26">
       <c r="A87" s="31"/>
       <c r="B87" s="11" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -5997,52 +6118,50 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" ht="90" spans="1:26">
+    <row r="88" ht="72" spans="1:26">
       <c r="A88" s="31"/>
       <c r="B88" s="11" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
-      <c r="T88" s="24"/>
-      <c r="U88" s="24"/>
-      <c r="V88" s="24"/>
-      <c r="W88" s="24"/>
-      <c r="X88" s="24"/>
-      <c r="Y88" s="24"/>
-      <c r="Z88" s="24"/>
-    </row>
-    <row r="89" ht="72" spans="1:26">
-      <c r="A89" s="32" t="s">
-        <v>263</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+    </row>
+    <row r="89" ht="90" spans="1:26">
+      <c r="A89" s="31"/>
       <c r="B89" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -6067,16 +6186,16 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" ht="72" spans="1:26">
-      <c r="A90" s="33"/>
+    <row r="90" ht="108" spans="1:26">
+      <c r="A90" s="31"/>
       <c r="B90" s="11" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -6101,16 +6220,16 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" ht="72" spans="1:26">
-      <c r="A91" s="33"/>
+    <row r="91" ht="90" spans="1:26">
+      <c r="A91" s="31"/>
       <c r="B91" s="11" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -6135,50 +6254,52 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" ht="72" spans="1:26">
-      <c r="A92" s="33"/>
+    <row r="92" ht="90" spans="1:26">
+      <c r="A92" s="31"/>
       <c r="B92" s="11" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
-      <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="24"/>
+      <c r="T92" s="24"/>
+      <c r="U92" s="24"/>
+      <c r="V92" s="24"/>
+      <c r="W92" s="24"/>
+      <c r="X92" s="24"/>
+      <c r="Y92" s="24"/>
+      <c r="Z92" s="24"/>
     </row>
     <row r="93" ht="72" spans="1:26">
-      <c r="A93" s="33"/>
+      <c r="A93" s="32" t="s">
+        <v>281</v>
+      </c>
       <c r="B93" s="11" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -6203,18 +6324,16 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" ht="54" spans="1:26">
-      <c r="A94" s="34" t="s">
-        <v>279</v>
-      </c>
+    <row r="94" ht="72" spans="1:26">
+      <c r="A94" s="33"/>
       <c r="B94" s="11" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -6239,16 +6358,16 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" ht="108" spans="1:26">
-      <c r="A95" s="35"/>
+    <row r="95" ht="72" spans="1:26">
+      <c r="A95" s="33"/>
       <c r="B95" s="11" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -6274,15 +6393,15 @@
       <c r="Z95" s="5"/>
     </row>
     <row r="96" ht="72" spans="1:26">
-      <c r="A96" s="35"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="11" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -6308,15 +6427,15 @@
       <c r="Z96" s="5"/>
     </row>
     <row r="97" ht="72" spans="1:26">
-      <c r="A97" s="35"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="11" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>291</v>
+        <v>295</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -6341,16 +6460,18 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" ht="72" spans="1:26">
-      <c r="A98" s="35"/>
+    <row r="98" ht="54" spans="1:26">
+      <c r="A98" s="34" t="s">
+        <v>297</v>
+      </c>
       <c r="B98" s="11" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>294</v>
+        <v>299</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -6375,18 +6496,20 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" ht="72" spans="1:26">
+    <row r="99" ht="108" spans="1:26">
       <c r="A99" s="35"/>
       <c r="B99" s="11" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>297</v>
+        <v>302</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -6410,15 +6533,17 @@
     <row r="100" ht="72" spans="1:26">
       <c r="A100" s="35"/>
       <c r="B100" s="11" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -6442,15 +6567,17 @@
     <row r="101" ht="72" spans="1:26">
       <c r="A101" s="35"/>
       <c r="B101" s="11" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>303</v>
+        <v>308</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>309</v>
       </c>
       <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -6474,15 +6601,17 @@
     <row r="102" ht="72" spans="1:26">
       <c r="A102" s="35"/>
       <c r="B102" s="11" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>306</v>
+        <v>311</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -6506,13 +6635,13 @@
     <row r="103" ht="72" spans="1:26">
       <c r="A103" s="35"/>
       <c r="B103" s="11" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>309</v>
+        <v>314</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="E103" s="5"/>
       <c r="H103" s="5"/>
@@ -6535,18 +6664,16 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" ht="54" spans="1:26">
-      <c r="A104" s="36" t="s">
-        <v>310</v>
-      </c>
+    <row r="104" ht="72" spans="1:26">
+      <c r="A104" s="35"/>
       <c r="B104" s="11" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E104" s="5"/>
       <c r="H104" s="5"/>
@@ -6570,15 +6697,15 @@
       <c r="Z104" s="5"/>
     </row>
     <row r="105" ht="72" spans="1:26">
-      <c r="A105" s="37"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="11" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E105" s="5"/>
       <c r="H105" s="5"/>
@@ -6602,15 +6729,15 @@
       <c r="Z105" s="5"/>
     </row>
     <row r="106" ht="72" spans="1:26">
-      <c r="A106" s="37"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E106" s="5"/>
       <c r="H106" s="5"/>
@@ -6634,19 +6761,17 @@
       <c r="Z106" s="5"/>
     </row>
     <row r="107" ht="72" spans="1:26">
-      <c r="A107" s="37"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="11" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -6667,20 +6792,20 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" ht="72" spans="1:26">
-      <c r="A108" s="37"/>
+    <row r="108" ht="54" spans="1:26">
+      <c r="A108" s="36" t="s">
+        <v>328</v>
+      </c>
       <c r="B108" s="11" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -6701,22 +6826,18 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" ht="126" spans="1:26">
-      <c r="A109" s="38" t="s">
-        <v>326</v>
-      </c>
+    <row r="109" ht="72" spans="1:26">
+      <c r="A109" s="37"/>
       <c r="B109" s="11" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
@@ -6737,20 +6858,18 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" ht="126" spans="1:26">
-      <c r="A110" s="38"/>
+    <row r="110" ht="72" spans="1:26">
+      <c r="A110" s="37"/>
       <c r="B110" s="11" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
@@ -6771,16 +6890,16 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" ht="90" spans="1:26">
-      <c r="A111" s="38"/>
+    <row r="111" ht="72" spans="1:26">
+      <c r="A111" s="37"/>
       <c r="B111" s="11" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -6805,16 +6924,16 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" ht="90" spans="1:26">
-      <c r="A112" s="39"/>
+    <row r="112" ht="72" spans="1:26">
+      <c r="A112" s="37"/>
       <c r="B112" s="11" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>338</v>
+        <v>342</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -6839,16 +6958,18 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" ht="72" spans="1:26">
-      <c r="A113" s="40"/>
+    <row r="113" ht="126" spans="1:26">
+      <c r="A113" s="38" t="s">
+        <v>344</v>
+      </c>
       <c r="B113" s="11" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>341</v>
+        <v>346</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>347</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -6873,16 +6994,16 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" ht="90" spans="1:26">
-      <c r="A114" s="40"/>
+    <row r="114" ht="126" spans="1:26">
+      <c r="A114" s="38"/>
       <c r="B114" s="11" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>344</v>
+        <v>349</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>350</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -6907,18 +7028,16 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" ht="54" spans="1:26">
-      <c r="A115" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="B115" s="42" t="s">
-        <v>346</v>
+    <row r="115" ht="90" spans="1:26">
+      <c r="A115" s="38"/>
+      <c r="B115" s="11" t="s">
+        <v>351</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>348</v>
+        <v>352</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>353</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -6943,16 +7062,16 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" ht="54" spans="1:26">
-      <c r="A116" s="41"/>
-      <c r="B116" s="42" t="s">
-        <v>349</v>
+    <row r="116" ht="90" spans="1:26">
+      <c r="A116" s="39"/>
+      <c r="B116" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -6978,15 +7097,15 @@
       <c r="Z116" s="5"/>
     </row>
     <row r="117" ht="72" spans="1:26">
-      <c r="A117" s="41"/>
-      <c r="B117" s="42" t="s">
-        <v>352</v>
+      <c r="A117" s="40"/>
+      <c r="B117" s="11" t="s">
+        <v>357</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -7011,16 +7130,16 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" ht="108" spans="1:26">
-      <c r="A118" s="41"/>
-      <c r="B118" s="42" t="s">
-        <v>355</v>
+    <row r="118" ht="90" spans="1:26">
+      <c r="A118" s="40"/>
+      <c r="B118" s="11" t="s">
+        <v>360</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -7045,18 +7164,18 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" ht="72" spans="1:26">
-      <c r="A119" s="43" t="s">
-        <v>358</v>
+    <row r="119" ht="54" spans="1:26">
+      <c r="A119" s="41" t="s">
+        <v>363</v>
       </c>
       <c r="B119" s="42" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -7081,16 +7200,16 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" ht="72" spans="1:26">
-      <c r="A120" s="44"/>
+    <row r="120" ht="54" spans="1:26">
+      <c r="A120" s="41"/>
       <c r="B120" s="42" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -7115,16 +7234,16 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121" ht="90" spans="1:26">
-      <c r="A121" s="44"/>
+    <row r="121" ht="72" spans="1:26">
+      <c r="A121" s="41"/>
       <c r="B121" s="42" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -7149,20 +7268,20 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122" ht="72" spans="1:26">
-      <c r="A122" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>369</v>
+    <row r="122" ht="108" spans="1:26">
+      <c r="A122" s="41"/>
+      <c r="B122" s="42" t="s">
+        <v>373</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="E122" s="5"/>
+        <v>375</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
@@ -7185,16 +7304,18 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" ht="90" spans="1:26">
-      <c r="A123" s="45"/>
-      <c r="B123" s="11" t="s">
-        <v>372</v>
+    <row r="123" ht="72" spans="1:26">
+      <c r="A123" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>378</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -7219,16 +7340,16 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124" ht="90" spans="1:26">
-      <c r="A124" s="45"/>
-      <c r="B124" s="11" t="s">
-        <v>375</v>
+    <row r="124" ht="72" spans="1:26">
+      <c r="A124" s="44"/>
+      <c r="B124" s="42" t="s">
+        <v>381</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -7253,16 +7374,16 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125" ht="126" spans="1:26">
-      <c r="A125" s="45"/>
-      <c r="B125" s="11" t="s">
-        <v>378</v>
+    <row r="125" ht="90" spans="1:26">
+      <c r="A125" s="44"/>
+      <c r="B125" s="42" t="s">
+        <v>384</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -7287,16 +7408,18 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126" ht="108" spans="1:26">
-      <c r="A126" s="45"/>
+    <row r="126" ht="72" spans="1:26">
+      <c r="A126" s="45" t="s">
+        <v>387</v>
+      </c>
       <c r="B126" s="11" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -7324,13 +7447,13 @@
     <row r="127" ht="90" spans="1:26">
       <c r="A127" s="45"/>
       <c r="B127" s="11" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -7355,18 +7478,16 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" ht="108" spans="1:26">
-      <c r="A128" s="46" t="s">
-        <v>387</v>
-      </c>
+    <row r="128" ht="90" spans="1:26">
+      <c r="A128" s="45"/>
       <c r="B128" s="11" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -7391,16 +7512,16 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" ht="108" spans="1:26">
-      <c r="A129" s="46"/>
+    <row r="129" ht="126" spans="1:26">
+      <c r="A129" s="45"/>
       <c r="B129" s="11" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -7426,15 +7547,15 @@
       <c r="Z129" s="5"/>
     </row>
     <row r="130" ht="108" spans="1:26">
-      <c r="A130" s="46"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="11" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -7459,16 +7580,16 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" ht="72" spans="1:26">
-      <c r="A131" s="46"/>
+    <row r="131" ht="90" spans="1:26">
+      <c r="A131" s="45"/>
       <c r="B131" s="11" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -7493,16 +7614,18 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" ht="90" spans="1:26">
-      <c r="A132" s="46"/>
+    <row r="132" ht="108" spans="1:26">
+      <c r="A132" s="46" t="s">
+        <v>406</v>
+      </c>
       <c r="B132" s="11" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -7527,16 +7650,16 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" ht="54" spans="1:26">
+    <row r="133" ht="108" spans="1:26">
       <c r="A133" s="46"/>
       <c r="B133" s="11" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -7561,16 +7684,16 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" ht="72" spans="1:26">
+    <row r="134" ht="108" spans="1:26">
       <c r="A134" s="46"/>
       <c r="B134" s="11" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -7598,13 +7721,13 @@
     <row r="135" ht="72" spans="1:26">
       <c r="A135" s="46"/>
       <c r="B135" s="11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -7629,18 +7752,16 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" ht="54" spans="1:26">
-      <c r="A136" s="47" t="s">
-        <v>412</v>
-      </c>
+    <row r="136" ht="90" spans="1:26">
+      <c r="A136" s="46"/>
       <c r="B136" s="11" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -7665,16 +7786,16 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" ht="108" spans="1:26">
-      <c r="A137" s="47"/>
-      <c r="B137" s="48" t="s">
-        <v>416</v>
+    <row r="137" ht="54" spans="1:26">
+      <c r="A137" s="46"/>
+      <c r="B137" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -7699,16 +7820,16 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" ht="126" spans="1:26">
-      <c r="A138" s="47"/>
-      <c r="B138" s="48" t="s">
-        <v>419</v>
+    <row r="138" ht="72" spans="1:26">
+      <c r="A138" s="46"/>
+      <c r="B138" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -7733,16 +7854,16 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" ht="90" spans="1:26">
-      <c r="A139" s="47"/>
-      <c r="B139" s="48" t="s">
-        <v>422</v>
+    <row r="139" ht="72" spans="1:26">
+      <c r="A139" s="46"/>
+      <c r="B139" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -7767,16 +7888,18 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" ht="72" spans="1:26">
-      <c r="A140" s="47"/>
-      <c r="B140" s="48" t="s">
-        <v>425</v>
+    <row r="140" ht="54" spans="1:26">
+      <c r="A140" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -7801,12 +7924,16 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" ht="18" spans="1:26">
-      <c r="A141" s="49"/>
-      <c r="B141" s="49"/>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50" t="s">
-        <v>428</v>
+    <row r="141" ht="108" spans="1:26">
+      <c r="A141" s="47"/>
+      <c r="B141" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>437</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -7831,11 +7958,17 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" ht="18" spans="1:26">
-      <c r="A142" s="51"/>
-      <c r="B142" s="51"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+    <row r="142" ht="126" spans="1:26">
+      <c r="A142" s="47"/>
+      <c r="B142" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>440</v>
+      </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
@@ -7859,11 +7992,17 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" ht="18" spans="1:26">
-      <c r="A143" s="51"/>
-      <c r="B143" s="51"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+    <row r="143" ht="90" spans="1:26">
+      <c r="A143" s="47"/>
+      <c r="B143" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>443</v>
+      </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -7887,11 +8026,17 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" ht="18" spans="1:26">
-      <c r="A144" s="51"/>
-      <c r="B144" s="51"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+    <row r="144" ht="72" spans="1:26">
+      <c r="A144" s="47"/>
+      <c r="B144" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
@@ -7916,10 +8061,12 @@
       <c r="Z144" s="5"/>
     </row>
     <row r="145" ht="18" spans="1:26">
-      <c r="A145" s="51"/>
-      <c r="B145" s="51"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="A145" s="49"/>
+      <c r="B145" s="49"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="50" t="s">
+        <v>447</v>
+      </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
@@ -33087,6 +33234,118 @@
       <c r="Y1043" s="5"/>
       <c r="Z1043" s="5"/>
     </row>
+    <row r="1044" ht="18" spans="1:26">
+      <c r="A1044" s="51"/>
+      <c r="B1044" s="51"/>
+      <c r="C1044" s="5"/>
+      <c r="D1044" s="5"/>
+      <c r="E1044" s="5"/>
+      <c r="F1044" s="5"/>
+      <c r="G1044" s="5"/>
+      <c r="H1044" s="5"/>
+      <c r="I1044" s="5"/>
+      <c r="J1044" s="5"/>
+      <c r="K1044" s="5"/>
+      <c r="L1044" s="5"/>
+      <c r="M1044" s="5"/>
+      <c r="N1044" s="5"/>
+      <c r="O1044" s="5"/>
+      <c r="P1044" s="5"/>
+      <c r="Q1044" s="5"/>
+      <c r="R1044" s="5"/>
+      <c r="S1044" s="5"/>
+      <c r="T1044" s="5"/>
+      <c r="U1044" s="5"/>
+      <c r="V1044" s="5"/>
+      <c r="W1044" s="5"/>
+      <c r="X1044" s="5"/>
+      <c r="Y1044" s="5"/>
+      <c r="Z1044" s="5"/>
+    </row>
+    <row r="1045" ht="18" spans="1:26">
+      <c r="A1045" s="51"/>
+      <c r="B1045" s="51"/>
+      <c r="C1045" s="5"/>
+      <c r="D1045" s="5"/>
+      <c r="E1045" s="5"/>
+      <c r="F1045" s="5"/>
+      <c r="G1045" s="5"/>
+      <c r="H1045" s="5"/>
+      <c r="I1045" s="5"/>
+      <c r="J1045" s="5"/>
+      <c r="K1045" s="5"/>
+      <c r="L1045" s="5"/>
+      <c r="M1045" s="5"/>
+      <c r="N1045" s="5"/>
+      <c r="O1045" s="5"/>
+      <c r="P1045" s="5"/>
+      <c r="Q1045" s="5"/>
+      <c r="R1045" s="5"/>
+      <c r="S1045" s="5"/>
+      <c r="T1045" s="5"/>
+      <c r="U1045" s="5"/>
+      <c r="V1045" s="5"/>
+      <c r="W1045" s="5"/>
+      <c r="X1045" s="5"/>
+      <c r="Y1045" s="5"/>
+      <c r="Z1045" s="5"/>
+    </row>
+    <row r="1046" ht="18" spans="1:26">
+      <c r="A1046" s="51"/>
+      <c r="B1046" s="51"/>
+      <c r="C1046" s="5"/>
+      <c r="D1046" s="5"/>
+      <c r="E1046" s="5"/>
+      <c r="F1046" s="5"/>
+      <c r="G1046" s="5"/>
+      <c r="H1046" s="5"/>
+      <c r="I1046" s="5"/>
+      <c r="J1046" s="5"/>
+      <c r="K1046" s="5"/>
+      <c r="L1046" s="5"/>
+      <c r="M1046" s="5"/>
+      <c r="N1046" s="5"/>
+      <c r="O1046" s="5"/>
+      <c r="P1046" s="5"/>
+      <c r="Q1046" s="5"/>
+      <c r="R1046" s="5"/>
+      <c r="S1046" s="5"/>
+      <c r="T1046" s="5"/>
+      <c r="U1046" s="5"/>
+      <c r="V1046" s="5"/>
+      <c r="W1046" s="5"/>
+      <c r="X1046" s="5"/>
+      <c r="Y1046" s="5"/>
+      <c r="Z1046" s="5"/>
+    </row>
+    <row r="1047" ht="18" spans="1:26">
+      <c r="A1047" s="51"/>
+      <c r="B1047" s="51"/>
+      <c r="C1047" s="5"/>
+      <c r="D1047" s="5"/>
+      <c r="E1047" s="5"/>
+      <c r="F1047" s="5"/>
+      <c r="G1047" s="5"/>
+      <c r="H1047" s="5"/>
+      <c r="I1047" s="5"/>
+      <c r="J1047" s="5"/>
+      <c r="K1047" s="5"/>
+      <c r="L1047" s="5"/>
+      <c r="M1047" s="5"/>
+      <c r="N1047" s="5"/>
+      <c r="O1047" s="5"/>
+      <c r="P1047" s="5"/>
+      <c r="Q1047" s="5"/>
+      <c r="R1047" s="5"/>
+      <c r="S1047" s="5"/>
+      <c r="T1047" s="5"/>
+      <c r="U1047" s="5"/>
+      <c r="V1047" s="5"/>
+      <c r="W1047" s="5"/>
+      <c r="X1047" s="5"/>
+      <c r="Y1047" s="5"/>
+      <c r="Z1047" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
